--- a/biology/Virologie/Hôte_(biologie)/Hôte_(biologie).xlsx
+++ b/biology/Virologie/Hôte_(biologie)/Hôte_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4te_(biologie)</t>
+          <t>Hôte_(biologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>En biologie, et notamment en parasitologie, un hôte est un  organisme qui héberge un parasite, un partenaire mutuel ou un partenaire commensal, nécessaire à son cycle de vie.
 Dans le cas du parasitisme, l'organisme hébergé peut provoquer des effets néfastes pour l'hôte. L'hôte doit s'adapter pour ne pas rencontrer le parasite (par exemple en modifiant son comportement). Si la rencontre a eu lieu, l'hôte doit s'adapter pour se débarrasser du parasite (immunité).
